--- a/计划实现.xlsx
+++ b/计划实现.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -460,179 +460,171 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>43339</v>
+        <v>43374</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>43340</v>
+        <v>43375</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>43341</v>
+        <v>43376</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>43342</v>
+        <v>43377</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>43343</v>
+        <v>43378</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>43344</v>
+        <v>43379</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>43345</v>
+        <v>43380</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>43346</v>
+        <v>43381</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>43347</v>
+        <v>43382</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>43348</v>
+        <v>43383</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>43349</v>
+        <v>43384</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>43350</v>
+        <v>43385</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>43351</v>
+        <v>43386</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>43352</v>
+        <v>43387</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>43353</v>
+        <v>43388</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>43354</v>
+        <v>43389</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>43355</v>
+        <v>43390</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>43356</v>
+        <v>43391</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>43357</v>
+        <v>43392</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>43358</v>
+        <v>43393</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>43359</v>
+        <v>43394</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>43360</v>
+        <v>43395</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <v>43361</v>
+        <v>43396</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
-        <v>43362</v>
+        <v>43397</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
-        <v>43363</v>
+        <v>43398</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
-        <v>43364</v>
+        <v>43399</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
-        <v>43365</v>
+        <v>43400</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
-        <v>43366</v>
+        <v>43401</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
-        <v>43367</v>
+        <v>43402</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
-        <v>43368</v>
+        <v>43403</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
-        <v>43369</v>
+        <v>43404</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
-        <v>43370</v>
-      </c>
+      <c r="A33" s="3"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
-        <v>43371</v>
-      </c>
+      <c r="A34" s="3"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
-        <v>43372</v>
-      </c>
+      <c r="A35" s="3"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
-        <v>43373</v>
-      </c>
+      <c r="A36" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
